--- a/過去問題/2019秋/午前カテゴリ分け.xlsx
+++ b/過去問題/2019秋/午前カテゴリ分け.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\ap\過去問題\2019秋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\ap\過去問題\2019秋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A30D29-1413-41EB-93CE-7552E9510A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C730E917-79C0-431C-A142-7919B96BE80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリ分け" sheetId="1" r:id="rId1"/>
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
+    <sheet name="解答シート" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TEST!$A$1:$E$81</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -146,6 +147,30 @@
     <t>check</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AP 過去問題</t>
+    <rPh sb="3" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>答え</t>
+    <rPh sb="0" eb="1">
+      <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -167,28 +192,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,15 +228,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,8 +580,8 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B81"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1255,8 +1316,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2509,4 +2570,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC79246-F7C8-445F-B24B-00F1C14AE3F1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2">
+        <f ca="1">TODAY()</f>
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="6">
+        <v>64</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6">
+        <v>69</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6">
+        <v>71</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6">
+        <v>73</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="6">
+        <v>76</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6">
+        <v>57</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6">
+        <v>77</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6">
+        <v>78</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="6">
+        <v>79</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="6">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="6">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>